--- a/Excel/Production_estimator.xlsx
+++ b/Excel/Production_estimator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamorga\OneDrive - Sandvik\Sales Support\Calculators\Production calculators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anaconda\Documents\Node_JS\Intro_Software\REACT_Native\Sandvik\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1626EA17-1531-4680-84D2-763B6C2B6A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16017773-9CF8-4847-AD1B-A79B3118FBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{1E8DBCC9-7E63-45D7-8A1F-24A422C36920}"/>
+    <workbookView xWindow="4824" yWindow="324" windowWidth="10368" windowHeight="5952" xr2:uid="{1E8DBCC9-7E63-45D7-8A1F-24A422C36920}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,21 @@
     <definedName name="_xlchart.v1.11" hidden="1">'Water Fall Info'!$O$29:$O$33</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'Water Fall Info'!$P$28</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">'Water Fall Info'!$P$29:$P$33</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Water Fall Info'!$M$20:$M$24</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Water Fall Info'!$N$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Water Fall Info'!$N$20:$N$24</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Water Fall Info'!$O$19</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Water Fall Info'!$O$20:$O$24</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Water Fall Info'!$P$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Water Fall Info'!$M$29:$M$33</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Water Fall Info'!$N$28</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Water Fall Info'!$N$29:$N$33</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Water Fall Info'!$O$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Water Fall Info'!$O$29:$O$33</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Water Fall Info'!$P$28</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Water Fall Info'!$N$20:$N$24</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Water Fall Info'!$P$20:$P$24</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Water Fall Info'!$M$29:$M$33</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Water Fall Info'!$N$28</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Water Fall Info'!$N$29:$N$33</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Water Fall Info'!$O$28</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Water Fall Info'!$O$29:$O$33</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Water Fall Info'!$P$28</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Water Fall Info'!$P$29:$P$33</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Water Fall Info'!$P$29:$P$33</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Water Fall Info'!$M$20:$M$24</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Water Fall Info'!$N$19</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Water Fall Info'!$N$20:$N$24</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Water Fall Info'!$O$19</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Water Fall Info'!$O$20:$O$24</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Water Fall Info'!$P$19</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Water Fall Info'!$P$20:$P$24</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Water Fall Info'!$O$19</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Water Fall Info'!$O$20:$O$24</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Water Fall Info'!$P$19</definedName>
@@ -1371,26 +1371,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1428,7 +1428,7 @@
         <cx:series layoutId="waterfall" uniqueId="{67B26F54-115E-4B44-B082-2C1EFC74CF60}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Base</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1444,7 +1444,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{00F3EFF7-117F-4E31-A6B3-DFA34BA71554}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>Fall</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1460,7 +1460,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{B1A34B82-AA82-4296-A2FC-5473FCAD59DA}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Rise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1494,26 +1494,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1566,7 +1566,7 @@
         <cx:series layoutId="waterfall" uniqueId="{18F1D900-84F6-44BA-B342-44BC09B0A89F}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Base</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1612,7 +1612,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{D0CD8EEB-CF79-446A-A80A-9B2A463CFC34}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Fall</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1658,7 +1658,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{D84506F0-0663-4489-8262-2317EE7AAE79}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Rise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4043,8 +4043,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="319768" y="3483429"/>
-              <a:ext cx="5105399" cy="2841852"/>
+              <a:off x="319768" y="3361509"/>
+              <a:ext cx="5233034" cy="2735172"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4121,8 +4121,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5860598" y="3483428"/>
-              <a:ext cx="5267324" cy="3069092"/>
+              <a:off x="5988233" y="3361508"/>
+              <a:ext cx="5431154" cy="2954792"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4204,8 +4204,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="57150" y="7886700"/>
-              <a:ext cx="8105776" cy="2581274"/>
+              <a:off x="57150" y="7574280"/>
+              <a:ext cx="8307706" cy="2482214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4282,8 +4282,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8662987" y="7796212"/>
-              <a:ext cx="6815138" cy="3062288"/>
+              <a:off x="8864917" y="7491412"/>
+              <a:ext cx="6969443" cy="2932748"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4616,38 +4616,38 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
-    <col min="27" max="28" width="11.85546875" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="27" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="81" t="s">
         <v>111</v>
@@ -4682,7 +4682,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="27" t="s">
         <v>118</v>
@@ -4719,7 +4719,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -4762,7 +4762,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -4808,7 +4808,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -4849,7 +4849,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -4895,7 +4895,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -4938,7 +4938,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -4979,7 +4979,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -5028,7 +5028,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -5085,7 +5085,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -5143,7 +5143,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="84" t="s">
         <v>129</v>
@@ -5202,7 +5202,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="84" t="s">
         <v>112</v>
@@ -5262,7 +5262,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="82" t="s">
         <v>114</v>
@@ -5325,7 +5325,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="82" t="s">
         <v>113</v>
@@ -5363,7 +5363,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="82" t="s">
         <v>115</v>
@@ -5398,7 +5398,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5429,7 +5429,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5460,7 +5460,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5491,7 +5491,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5522,7 +5522,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5553,7 +5553,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5584,7 +5584,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5615,7 +5615,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5646,7 +5646,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5677,7 +5677,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5708,7 +5708,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5739,7 +5739,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5770,7 +5770,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5801,7 +5801,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5832,7 +5832,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5863,7 +5863,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5894,7 +5894,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5925,7 +5925,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5956,7 +5956,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5987,7 +5987,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6018,7 +6018,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6078,35 +6078,35 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
         <v>60</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="24" t="s">
@@ -6168,7 +6168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="F7" s="47">
@@ -6207,7 +6207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="E8" t="s">
@@ -6247,7 +6247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>79</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>81</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>82</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>84</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>61</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>77</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>64</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>78</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>65</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>66</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="Q19" s="59"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>67</v>
       </c>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>68</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="Q21" s="59"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>69</v>
       </c>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="Q22" s="59"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>70</v>
       </c>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="Q23" s="59"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>71</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="P24" s="67"/>
       <c r="Q24" s="30"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>72</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="O25" s="67"/>
       <c r="P25" s="67"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>73</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>74</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="P27" s="17"/>
       <c r="R27" s="60"/>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>54</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>75</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="Q29" s="60"/>
       <c r="R29" s="59"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
       <c r="F30" s="52"/>
       <c r="G30" s="51"/>
@@ -6915,7 +6915,7 @@
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>104</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="Q31" s="59"/>
       <c r="R31" s="59"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>104</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="Q32" s="59"/>
       <c r="R32" s="30"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>106</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="P33" s="67"/>
       <c r="Q33" s="30"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>108</v>
       </c>
@@ -7052,31 +7052,31 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N35" s="67"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D36" s="61"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F48"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>26</v>
       </c>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="11" t="s">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -7104,7 +7104,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
@@ -7114,11 +7114,11 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>

--- a/Excel/Production_estimator.xlsx
+++ b/Excel/Production_estimator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anaconda\Documents\Node_JS\Intro_Software\REACT_Native\Sandvik\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16017773-9CF8-4847-AD1B-A79B3118FBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391ED4FE-94C0-43BC-9110-2CEF02B0EF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="324" windowWidth="10368" windowHeight="5952" xr2:uid="{1E8DBCC9-7E63-45D7-8A1F-24A422C36920}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E8DBCC9-7E63-45D7-8A1F-24A422C36920}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -4616,7 +4616,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5047,7 +5047,7 @@
       <c r="G10" s="83"/>
       <c r="H10" s="70">
         <f>L10/D11</f>
-        <v>787.89814814814804</v>
+        <v>451.60998961297031</v>
       </c>
       <c r="I10" s="8">
         <f>J10*K10</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="L10" s="8">
         <f>D12</f>
-        <v>872321.43472222204</v>
+        <v>500000</v>
       </c>
       <c r="M10" s="10">
         <v>1</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="M11" s="15">
         <f>L11/$L$10</f>
-        <v>1.0563682730018389</v>
+        <v>1.842985375</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -5150,8 +5150,7 @@
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="77">
-        <f>E15</f>
-        <v>872321.43472222204</v>
+        <v>500000</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="83" t="s">
@@ -5180,7 +5179,7 @@
       </c>
       <c r="M12" s="15">
         <f>L12/$L$10</f>
-        <v>1.0585241266202097</v>
+        <v>1.8467465696428567</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>119</v>
@@ -5238,7 +5237,7 @@
       </c>
       <c r="M13" s="15">
         <f>L13/$L$10</f>
-        <v>1.1643765392822307</v>
+        <v>2.0314212266071423</v>
       </c>
       <c r="N13" s="80">
         <f>'Water Fall Info'!N13</f>
@@ -5301,7 +5300,7 @@
       </c>
       <c r="M14" s="15">
         <f>L14/$L$10</f>
-        <v>1.2209706547961807</v>
+        <v>2.1301577466910704</v>
       </c>
       <c r="N14" s="80">
         <f>'Water Fall Info'!I33</f>
@@ -6931,7 +6930,7 @@
       </c>
       <c r="F31" s="26">
         <f>Summary!D12/'Water Fall Info'!B12</f>
-        <v>14339.530433789951</v>
+        <v>8219.17808219178</v>
       </c>
       <c r="G31" s="56">
         <f>G22*Summary!D10</f>
@@ -7161,21 +7160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B213CCA8013F15498614EFF528826B54" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a91674ab2ffb5a13b82b9dc442c7dea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="589a4ccc-1179-4918-b5a3-df951319a05f" xmlns:ns4="5a2f2624-f98c-49c1-96fa-2e7f7a2b0df6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a16099a1832cbda7f407950f0eef236" ns3:_="" ns4:_="">
     <xsd:import namespace="589a4ccc-1179-4918-b5a3-df951319a05f"/>
@@ -7398,32 +7382,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC85043C-4ED8-4A3E-80F2-A3023AE56E51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="589a4ccc-1179-4918-b5a3-df951319a05f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5a2f2624-f98c-49c1-96fa-2e7f7a2b0df6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B75507E-D178-4B48-90CB-ECAE3FB6F66D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92953386-EC89-415A-B75F-2AFFEEE59D3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7440,4 +7414,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B75507E-D178-4B48-90CB-ECAE3FB6F66D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC85043C-4ED8-4A3E-80F2-A3023AE56E51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="589a4ccc-1179-4918-b5a3-df951319a05f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5a2f2624-f98c-49c1-96fa-2e7f7a2b0df6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>